--- a/Presupuesto/Presupuesto cooperadora.xlsx
+++ b/Presupuesto/Presupuesto cooperadora.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -34,16 +34,13 @@
     <t xml:space="preserve">costo total</t>
   </si>
   <si>
-    <t xml:space="preserve">clavos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1kg</t>
-  </si>
-  <si>
     <t xml:space="preserve">raspberry pi 4</t>
   </si>
   <si>
     <t xml:space="preserve">ultrasonido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fin de carrera</t>
   </si>
 </sst>
 </file>
@@ -54,7 +51,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -84,6 +81,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -134,7 +137,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -143,11 +146,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -231,7 +246,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -261,44 +276,44 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>45505</v>
-      </c>
-      <c r="B2" s="0" t="s">
+        <v>45511</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>8500</v>
+      <c r="C2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>125000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="5" t="n">
         <v>45511</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>125000</v>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>11000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="5" t="n">
         <v>45511</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="n">
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="n">
-        <v>11000</v>
+      <c r="D4" s="6" t="n">
+        <v>6000</v>
       </c>
     </row>
   </sheetData>

--- a/Presupuesto/Presupuesto cooperadora.xlsx
+++ b/Presupuesto/Presupuesto cooperadora.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">fin de carrera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display</t>
   </si>
 </sst>
 </file>
@@ -51,7 +54,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -81,12 +84,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -137,32 +134,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -243,77 +244,91 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.76"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="5" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.76"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="5" style="1" width="15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>45511</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>125000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="6" t="n">
         <v>45511</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>11000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="6" t="n">
         <v>45511</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="5" t="n">
         <v>6000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
